--- a/biology/Botanique/Macroalgue/Macroalgue.xlsx
+++ b/biology/Botanique/Macroalgue/Macroalgue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les macroalgues sont les grandes algues et algues géantes. 
 Ce sont des algues fixées sur un substrat rocheux, à l'exception des Sargasses de la mer des Sargasses qui flottent sans être accrochées. Elles constituent elles-mêmes un abri (ex : forêt de kelp) et un substrat pour de nombreuses communautés animales marines, voire pour des espèces semi-aquatique telle que la loutre de mer. 
@@ -512,11 +524,13 @@
           <t>Exploitation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'exploitation des goémons comme engrais remonte au moins au haut Moyen Âge. Elle a contribué pour une part importante à la réputation de la « ceinture dorée » de la Bretagne[1]. Leur premier usage industriel a lieu au XVIe siècle dans les manufactures du verre et les fabriques de savon. La soude « naturelle » nécessaire à la réaction de saponification est en effet obtenue à partir des cendres de certaines plantes riches en sodium comme la Soude brûlée, les salicornes ou les algues. La température de fusion de la silice est abaissée par le carbonate de soude issue des cendres de bois mais avec l'épuisement des forêts, les verriers utilisent les cendres obtenues par le brûlage des algues brunes. Cette exploitation des algues décline avec la production industrielle du carbonate de sodium au XIXe siècle trois siècles plus tard mais en 1811, le chimiste Bernard Courtois découvre l'iode dans ces mêmes cendres, ce qui marque la deuxième période industrielle des algues. Les pains de soude de goémoniers sont livrés aux usines qui en extraient l'iode utilisé dans l'industrie de la photographie (iodure d'argent) et le domaine médical (teinture d'iode désinfectant les blessures externes)[2]. Aujourd'hui, des vestiges de cette époque sont encore visibles : ruines de fours à goémon et d'anciennes usines d'extraction d'iode
-En raison de leur grande diversité chimique et de la bioactivité de leurs métabolites secondaires[3], les macroalgues présentent un intérêt commercial qui est surtout exploité depuis le XXe siècle : cosmétiques, industrie agroalimentaire (légumes, phycocolloïdes : épaississant, gélifiant, etc.), horticulture (plastique compostable), agriculture (engrais et substitut aux phytosanitaires chimiques), santé humaine (médicaments) et animale (substitut aux antibiotiques), bioénergie. Cet intérêt peut être une des causes de leur régression (ou extinction localement due à leur surexploitation) mais il peut également être valorisé à travers une filière algues bien maîtrisée.
-La production mondiale de macro-algues (récolte et surtout culture d'algues brunes, rouges et vertes) explose au XXIe siècle : de 15 millions de tonnes en 2009[4], elle est passée à 25 millions de tonnes en 2016 (24 millions étant issues de l'algoculture). La Chine est le premier producteur mondial (64 % de la production mondiale) devant l'Indonésie (11 %) et l'Europe (1 %  dont la France à peine 0,3 %)[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'exploitation des goémons comme engrais remonte au moins au haut Moyen Âge. Elle a contribué pour une part importante à la réputation de la « ceinture dorée » de la Bretagne. Leur premier usage industriel a lieu au XVIe siècle dans les manufactures du verre et les fabriques de savon. La soude « naturelle » nécessaire à la réaction de saponification est en effet obtenue à partir des cendres de certaines plantes riches en sodium comme la Soude brûlée, les salicornes ou les algues. La température de fusion de la silice est abaissée par le carbonate de soude issue des cendres de bois mais avec l'épuisement des forêts, les verriers utilisent les cendres obtenues par le brûlage des algues brunes. Cette exploitation des algues décline avec la production industrielle du carbonate de sodium au XIXe siècle trois siècles plus tard mais en 1811, le chimiste Bernard Courtois découvre l'iode dans ces mêmes cendres, ce qui marque la deuxième période industrielle des algues. Les pains de soude de goémoniers sont livrés aux usines qui en extraient l'iode utilisé dans l'industrie de la photographie (iodure d'argent) et le domaine médical (teinture d'iode désinfectant les blessures externes). Aujourd'hui, des vestiges de cette époque sont encore visibles : ruines de fours à goémon et d'anciennes usines d'extraction d'iode
+En raison de leur grande diversité chimique et de la bioactivité de leurs métabolites secondaires, les macroalgues présentent un intérêt commercial qui est surtout exploité depuis le XXe siècle : cosmétiques, industrie agroalimentaire (légumes, phycocolloïdes : épaississant, gélifiant, etc.), horticulture (plastique compostable), agriculture (engrais et substitut aux phytosanitaires chimiques), santé humaine (médicaments) et animale (substitut aux antibiotiques), bioénergie. Cet intérêt peut être une des causes de leur régression (ou extinction localement due à leur surexploitation) mais il peut également être valorisé à travers une filière algues bien maîtrisée.
+La production mondiale de macro-algues (récolte et surtout culture d'algues brunes, rouges et vertes) explose au XXIe siècle : de 15 millions de tonnes en 2009, elle est passée à 25 millions de tonnes en 2016 (24 millions étant issues de l'algoculture). La Chine est le premier producteur mondial (64 % de la production mondiale) devant l'Indonésie (11 %) et l'Europe (1 %  dont la France à peine 0,3 %).
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Filière macroalgues</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La filière macroalgues rassemble producteurs (récoltants à pied, pêcheurs, algoculteurs), les transformateurs, les fournisseurs de technologie, les organismes de recherche, les collectivités locales, les organismes locaux pertinents et autres parties prenantes.
-Par exemple, la filière algues bretonne rassemble 1 500 chercheurs, génère 1 700 emplois  avec près de 80 entreprises de transformation et de commercialisation (groupe Roullier, Goëmar…), pour une valeur estimée à 424 M€ en 2015[6].
+Par exemple, la filière algues bretonne rassemble 1 500 chercheurs, génère 1 700 emplois  avec près de 80 entreprises de transformation et de commercialisation (groupe Roullier, Goëmar…), pour une valeur estimée à 424 M€ en 2015.
 </t>
         </is>
       </c>
